--- a/biology/Botanique/Tribonemataceae/Tribonemataceae.xlsx
+++ b/biology/Botanique/Tribonemataceae/Tribonemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Tribonemataceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Xanthophyceae et de l’ordre des Tribonematales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Tribonemataceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Xanthophyceae et de l’ordre des Tribonematales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tribonema, dérivé du grec τριβω / tribo, « frotter », et νήμα / nima, « fil ; ficelle »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tribonema, dérivé du grec τριβω / tribo, « frotter », et νήμα / nima, « fil ; ficelle ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Tribonemataceae a été créée en 1904 par le phycologue anglais George Stephen West (d) (1876-1919)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Tribonemataceae a été créée en 1904 par le phycologue anglais George Stephen West (d) (1876-1919).
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (20 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (20 avril 2022) :
 Brachynema Ålvik, 1934 nom. illeg.
 Brachynematella P.C.Silva, 1979
 Bumilleria Borzì, 1889
